--- a/output/summary_fish_compo_sp_loq_replaced.xlsx
+++ b/output/summary_fish_compo_sp_loq_replaced.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Achiropsettidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Mancopsetta mancopsetta</t>
+    <t xml:space="preserve">Mancopsetta maculata</t>
   </si>
   <si>
     <t xml:space="preserve">mean</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Muraenolepididae</t>
   </si>
   <si>
-    <t xml:space="preserve">Muraenolepis sp</t>
+    <t xml:space="preserve">Muraenolepis marmorata</t>
   </si>
   <si>
     <t xml:space="preserve">Myctophidae</t>
@@ -3201,61 +3201,61 @@
         <v>54</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="F42" t="n">
-        <v>1.953</v>
+        <v>2.107</v>
       </c>
       <c r="G42" t="n">
-        <v>30592.678</v>
+        <v>30373.824</v>
       </c>
       <c r="H42" t="n">
-        <v>0.175</v>
+        <v>0.159</v>
       </c>
       <c r="I42" t="n">
-        <v>0.207</v>
+        <v>0.114</v>
       </c>
       <c r="J42" t="n">
-        <v>6.409</v>
+        <v>6.063</v>
       </c>
       <c r="K42" t="n">
-        <v>192.381</v>
+        <v>84.22</v>
       </c>
       <c r="L42" t="n">
-        <v>8062.299</v>
+        <v>8885.522</v>
       </c>
       <c r="M42" t="n">
-        <v>3441.506</v>
+        <v>3214.45</v>
       </c>
       <c r="N42" t="n">
-        <v>4.774</v>
+        <v>3.236</v>
       </c>
       <c r="O42" t="n">
-        <v>16366.681</v>
+        <v>15310.941</v>
       </c>
       <c r="P42" t="n">
-        <v>8.227</v>
+        <v>1.985</v>
       </c>
       <c r="Q42" t="n">
-        <v>21580.621</v>
+        <v>21763.641</v>
       </c>
       <c r="R42" t="n">
-        <v>0.874</v>
+        <v>0.15</v>
       </c>
       <c r="S42" t="n">
-        <v>3.162</v>
+        <v>3.39</v>
       </c>
       <c r="T42" t="n">
-        <v>97.216</v>
+        <v>94.197</v>
       </c>
       <c r="U42" t="n">
-        <v>54.298</v>
+        <v>51.657</v>
       </c>
     </row>
     <row r="43">
@@ -3266,61 +3266,61 @@
         <v>54</v>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
       </c>
       <c r="E43" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="F43" t="n">
-        <v>0.361</v>
+        <v>0.23</v>
       </c>
       <c r="G43" t="n">
-        <v>6300.705</v>
+        <v>7698.113</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04</v>
+        <v>0.028</v>
       </c>
       <c r="I43" t="n">
-        <v>0.186</v>
+        <v>0.014</v>
       </c>
       <c r="J43" t="n">
-        <v>0.979</v>
+        <v>0.849</v>
       </c>
       <c r="K43" t="n">
-        <v>220.189</v>
+        <v>50.325</v>
       </c>
       <c r="L43" t="n">
-        <v>2087.044</v>
+        <v>1570.813</v>
       </c>
       <c r="M43" t="n">
-        <v>673.208</v>
+        <v>608.676</v>
       </c>
       <c r="N43" t="n">
-        <v>3.18</v>
+        <v>0.993</v>
       </c>
       <c r="O43" t="n">
-        <v>2698.832</v>
+        <v>2058.645</v>
       </c>
       <c r="P43" t="n">
-        <v>12.485</v>
+        <v>0.251</v>
       </c>
       <c r="Q43" t="n">
-        <v>3594.268</v>
+        <v>4379.174</v>
       </c>
       <c r="R43" t="n">
-        <v>1.448</v>
+        <v>0.069</v>
       </c>
       <c r="S43" t="n">
-        <v>0.47</v>
+        <v>0.14</v>
       </c>
       <c r="T43" t="n">
-        <v>23.706</v>
+        <v>28.076</v>
       </c>
       <c r="U43" t="n">
-        <v>15.297</v>
+        <v>17.583</v>
       </c>
     </row>
     <row r="44">
@@ -4337,61 +4337,61 @@
         <v>66</v>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
       </c>
       <c r="E60" t="n">
-        <v>0.023</v>
+        <v>0.02</v>
       </c>
       <c r="F60" t="n">
-        <v>1.621</v>
+        <v>1.273</v>
       </c>
       <c r="G60" t="n">
-        <v>18227.204</v>
+        <v>18908.68</v>
       </c>
       <c r="H60" t="n">
-        <v>0.199</v>
+        <v>0.202</v>
       </c>
       <c r="I60" t="n">
-        <v>0.092</v>
+        <v>0.084</v>
       </c>
       <c r="J60" t="n">
-        <v>11.636</v>
+        <v>10.495</v>
       </c>
       <c r="K60" t="n">
-        <v>227.59</v>
+        <v>204.743</v>
       </c>
       <c r="L60" t="n">
-        <v>12622.666</v>
+        <v>13052.801</v>
       </c>
       <c r="M60" t="n">
-        <v>3055.449</v>
+        <v>3261.785</v>
       </c>
       <c r="N60" t="n">
-        <v>30.062</v>
+        <v>3.625</v>
       </c>
       <c r="O60" t="n">
-        <v>17439.347</v>
+        <v>18583.814</v>
       </c>
       <c r="P60" t="n">
-        <v>0.818</v>
+        <v>0.821</v>
       </c>
       <c r="Q60" t="n">
-        <v>16915.979</v>
+        <v>17977.425</v>
       </c>
       <c r="R60" t="n">
-        <v>0.103</v>
+        <v>0.056</v>
       </c>
       <c r="S60" t="n">
-        <v>3.823</v>
+        <v>3.712</v>
       </c>
       <c r="T60" t="n">
-        <v>65.248</v>
+        <v>68.873</v>
       </c>
       <c r="U60" t="n">
-        <v>68.645</v>
+        <v>67.287</v>
       </c>
     </row>
     <row r="61">
@@ -4402,61 +4402,61 @@
         <v>66</v>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
       </c>
       <c r="E61" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F61" t="n">
-        <v>0.603</v>
+        <v>0.02</v>
       </c>
       <c r="G61" t="n">
-        <v>1236.055</v>
+        <v>518.852</v>
       </c>
       <c r="H61" t="n">
-        <v>0.057</v>
+        <v>0.079</v>
       </c>
       <c r="I61" t="n">
-        <v>0.015</v>
+        <v>0.004</v>
       </c>
       <c r="J61" t="n">
-        <v>1.99</v>
+        <v>0.323</v>
       </c>
       <c r="K61" t="n">
-        <v>63.177</v>
+        <v>69.647</v>
       </c>
       <c r="L61" t="n">
-        <v>770.991</v>
+        <v>280.643</v>
       </c>
       <c r="M61" t="n">
-        <v>372.977</v>
+        <v>150.916</v>
       </c>
       <c r="N61" t="n">
-        <v>45.792</v>
+        <v>0.422</v>
       </c>
       <c r="O61" t="n">
-        <v>1984.158</v>
+        <v>122.17</v>
       </c>
       <c r="P61" t="n">
-        <v>0.035</v>
+        <v>0.049</v>
       </c>
       <c r="Q61" t="n">
-        <v>1867.855</v>
+        <v>466.647</v>
       </c>
       <c r="R61" t="n">
-        <v>0.082</v>
+        <v>0.012</v>
       </c>
       <c r="S61" t="n">
-        <v>0.204</v>
+        <v>0.093</v>
       </c>
       <c r="T61" t="n">
-        <v>6.342</v>
+        <v>1.264</v>
       </c>
       <c r="U61" t="n">
-        <v>2.964</v>
+        <v>2.549</v>
       </c>
     </row>
     <row r="62">

--- a/output/summary_fish_compo_sp_loq_replaced.xlsx
+++ b/output/summary_fish_compo_sp_loq_replaced.xlsx
@@ -224,7 +224,7 @@
     <t xml:space="preserve">Idiacanthus atlanticus</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomias sp</t>
+    <t xml:space="preserve">Stomias spp.</t>
   </si>
   <si>
     <t xml:space="preserve">Zoarcidae</t>
